--- a/data/administracion_de_tribunales/Departamento Justicia.xlsx
+++ b/data/administracion_de_tribunales/Departamento Justicia.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frankie.rodriguez\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixbaez822/Desktop/Estadisticas-Sobre-Violencia-de-Genero-en-Puerto-Rico/data/administracion_de_tribunales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19AAFB6-3A2A-4E99-9BB1-B53F42995C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82C1B51-2CEE-0945-9B56-441A896D33AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F13E211E-5F3E-4D38-877F-800DC672868F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20740" windowHeight="11160" activeTab="1" xr2:uid="{F13E211E-5F3E-4D38-877F-800DC672868F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Delitos de Violencia Doméstica Radicado por Querella(s) 2023* (1 de enero al 14 noviembre)</t>
   </si>
@@ -105,9 +106,6 @@
   </si>
   <si>
     <t>Ley 54 Art. 2.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Año Natural </t>
   </si>
 </sst>
 </file>
@@ -137,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,12 +151,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -202,25 +194,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,444 +524,441 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDD2F40-9567-4C97-9D9C-26066F863A7A}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="A16:XFD18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="73.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="14.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5">
+        <v>34</v>
+      </c>
+      <c r="C2" s="5">
+        <v>192</v>
+      </c>
+      <c r="D2" s="5">
+        <v>77</v>
+      </c>
+      <c r="E2" s="5">
+        <v>113</v>
+      </c>
+      <c r="F2" s="5">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5">
+        <v>126</v>
+      </c>
+      <c r="D3" s="5">
+        <v>52</v>
+      </c>
+      <c r="E3" s="5">
+        <v>57</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5">
+        <v>147</v>
+      </c>
+      <c r="D4" s="5">
+        <v>68</v>
+      </c>
+      <c r="E4" s="5">
+        <v>85</v>
+      </c>
+      <c r="F4" s="5">
+        <v>8</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5">
+        <v>70</v>
+      </c>
+      <c r="C5" s="5">
+        <v>262</v>
+      </c>
+      <c r="D5" s="5">
+        <v>110</v>
+      </c>
+      <c r="E5" s="5">
+        <v>152</v>
+      </c>
+      <c r="F5" s="5">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5">
+        <v>35</v>
+      </c>
+      <c r="C6" s="5">
+        <v>109</v>
+      </c>
+      <c r="D6" s="5">
+        <v>65</v>
+      </c>
+      <c r="E6" s="5">
+        <v>60</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>6</v>
+      </c>
+      <c r="H6" s="5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5">
+        <v>32</v>
+      </c>
+      <c r="C7" s="5">
+        <v>162</v>
+      </c>
+      <c r="D7" s="5">
+        <v>43</v>
+      </c>
+      <c r="E7" s="5">
+        <v>87</v>
+      </c>
+      <c r="F7" s="5">
+        <v>9</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5">
+        <v>69</v>
+      </c>
+      <c r="D8" s="5">
+        <v>26</v>
+      </c>
+      <c r="E8" s="5">
+        <v>38</v>
+      </c>
+      <c r="F8" s="5">
+        <v>3</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5">
+        <v>112</v>
+      </c>
+      <c r="D9" s="5">
+        <v>47</v>
+      </c>
+      <c r="E9" s="5">
+        <v>63</v>
+      </c>
+      <c r="F9" s="5">
+        <v>4</v>
+      </c>
+      <c r="G9" s="5">
+        <v>3</v>
+      </c>
+      <c r="H9" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5">
+        <v>32</v>
+      </c>
+      <c r="C10" s="5">
+        <v>176</v>
+      </c>
+      <c r="D10" s="5">
+        <v>53</v>
+      </c>
+      <c r="E10" s="5">
+        <v>71</v>
+      </c>
+      <c r="F10" s="5">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5">
+        <v>6</v>
+      </c>
+      <c r="H10" s="5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5">
+        <v>82</v>
+      </c>
+      <c r="D11" s="5">
+        <v>35</v>
+      </c>
+      <c r="E11" s="5">
+        <v>46</v>
+      </c>
+      <c r="H11" s="5">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5">
+        <v>45</v>
+      </c>
+      <c r="C12" s="5">
+        <v>212</v>
+      </c>
+      <c r="D12" s="5">
+        <v>68</v>
+      </c>
+      <c r="E12" s="5">
+        <v>127</v>
+      </c>
+      <c r="F12" s="5">
+        <v>3</v>
+      </c>
+      <c r="H12" s="5">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="5">
+        <v>53</v>
+      </c>
+      <c r="C13" s="5">
+        <v>323</v>
+      </c>
+      <c r="D13" s="5">
+        <v>107</v>
+      </c>
+      <c r="E13" s="5">
+        <v>165</v>
+      </c>
+      <c r="F13" s="5">
+        <v>17</v>
+      </c>
+      <c r="G13" s="5">
+        <v>7</v>
+      </c>
+      <c r="H13" s="5">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5">
+        <v>53</v>
+      </c>
+      <c r="D14" s="5">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5">
+        <v>26</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1">
+        <v>399</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2025</v>
+      </c>
+      <c r="D15" s="1">
+        <v>764</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1090</v>
+      </c>
+      <c r="F15" s="1">
+        <v>73</v>
+      </c>
+      <c r="G15" s="1">
+        <v>36</v>
+      </c>
+      <c r="H15" s="4">
+        <v>4387</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E0719F-9798-2B48-AFF3-ECFC9E27343F}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="73.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="9">
-        <v>34</v>
-      </c>
-      <c r="C5" s="9">
-        <v>192</v>
-      </c>
-      <c r="D5" s="9">
-        <v>77</v>
-      </c>
-      <c r="E5" s="9">
-        <v>113</v>
-      </c>
-      <c r="F5" s="9">
-        <v>8</v>
-      </c>
-      <c r="G5" s="9">
-        <v>4</v>
-      </c>
-      <c r="H5" s="9">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="9">
-        <v>13</v>
-      </c>
-      <c r="C6" s="9">
-        <v>126</v>
-      </c>
-      <c r="D6" s="9">
-        <v>52</v>
-      </c>
-      <c r="E6" s="9">
-        <v>57</v>
-      </c>
-      <c r="F6" s="9">
-        <v>2</v>
-      </c>
-      <c r="H6" s="9">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="9">
-        <v>20</v>
-      </c>
-      <c r="C7" s="9">
-        <v>147</v>
-      </c>
-      <c r="D7" s="9">
-        <v>68</v>
-      </c>
-      <c r="E7" s="9">
-        <v>85</v>
-      </c>
-      <c r="F7" s="9">
-        <v>8</v>
-      </c>
-      <c r="G7" s="9">
-        <v>3</v>
-      </c>
-      <c r="H7" s="9">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="9">
-        <v>70</v>
-      </c>
-      <c r="C8" s="9">
-        <v>262</v>
-      </c>
-      <c r="D8" s="9">
-        <v>110</v>
-      </c>
-      <c r="E8" s="9">
-        <v>152</v>
-      </c>
-      <c r="F8" s="9">
-        <v>9</v>
-      </c>
-      <c r="G8" s="9">
-        <v>2</v>
-      </c>
-      <c r="H8" s="9">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="9">
-        <v>35</v>
-      </c>
-      <c r="C9" s="9">
-        <v>109</v>
-      </c>
-      <c r="D9" s="9">
-        <v>65</v>
-      </c>
-      <c r="E9" s="9">
-        <v>60</v>
-      </c>
-      <c r="F9" s="9">
-        <v>2</v>
-      </c>
-      <c r="G9" s="9">
-        <v>6</v>
-      </c>
-      <c r="H9" s="9">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="9">
-        <v>32</v>
-      </c>
-      <c r="C10" s="9">
-        <v>162</v>
-      </c>
-      <c r="D10" s="9">
-        <v>43</v>
-      </c>
-      <c r="E10" s="9">
-        <v>87</v>
-      </c>
-      <c r="F10" s="9">
-        <v>9</v>
-      </c>
-      <c r="G10" s="9">
-        <v>2</v>
-      </c>
-      <c r="H10" s="9">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="9">
-        <v>9</v>
-      </c>
-      <c r="C11" s="9">
-        <v>69</v>
-      </c>
-      <c r="D11" s="9">
-        <v>26</v>
-      </c>
-      <c r="E11" s="9">
-        <v>38</v>
-      </c>
-      <c r="F11" s="9">
-        <v>3</v>
-      </c>
-      <c r="G11" s="9">
-        <v>2</v>
-      </c>
-      <c r="H11" s="9">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="9">
-        <v>21</v>
-      </c>
-      <c r="C12" s="9">
-        <v>112</v>
-      </c>
-      <c r="D12" s="9">
-        <v>47</v>
-      </c>
-      <c r="E12" s="9">
-        <v>63</v>
-      </c>
-      <c r="F12" s="9">
-        <v>4</v>
-      </c>
-      <c r="G12" s="9">
-        <v>3</v>
-      </c>
-      <c r="H12" s="9">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="9">
-        <v>32</v>
-      </c>
-      <c r="C13" s="9">
-        <v>176</v>
-      </c>
-      <c r="D13" s="9">
-        <v>53</v>
-      </c>
-      <c r="E13" s="9">
-        <v>71</v>
-      </c>
-      <c r="F13" s="9">
-        <v>7</v>
-      </c>
-      <c r="G13" s="9">
-        <v>6</v>
-      </c>
-      <c r="H13" s="9">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="9">
-        <v>27</v>
-      </c>
-      <c r="C14" s="9">
-        <v>82</v>
-      </c>
-      <c r="D14" s="9">
-        <v>35</v>
-      </c>
-      <c r="E14" s="9">
-        <v>46</v>
-      </c>
-      <c r="H14" s="9">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="9">
-        <v>45</v>
-      </c>
-      <c r="C15" s="9">
-        <v>212</v>
-      </c>
-      <c r="D15" s="9">
-        <v>68</v>
-      </c>
-      <c r="E15" s="9">
-        <v>127</v>
-      </c>
-      <c r="F15" s="9">
-        <v>3</v>
-      </c>
-      <c r="H15" s="9">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="9">
-        <v>53</v>
-      </c>
-      <c r="C16" s="9">
-        <v>323</v>
-      </c>
-      <c r="D16" s="9">
-        <v>107</v>
-      </c>
-      <c r="E16" s="9">
-        <v>165</v>
-      </c>
-      <c r="F16" s="9">
-        <v>17</v>
-      </c>
-      <c r="G16" s="9">
-        <v>7</v>
-      </c>
-      <c r="H16" s="9">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="9">
-        <v>8</v>
-      </c>
-      <c r="C17" s="9">
-        <v>53</v>
-      </c>
-      <c r="D17" s="9">
-        <v>13</v>
-      </c>
-      <c r="E17" s="9">
-        <v>26</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1</v>
-      </c>
-      <c r="G17" s="9">
-        <v>1</v>
-      </c>
-      <c r="H17" s="9">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="3">
-        <v>399</v>
-      </c>
-      <c r="C18" s="8">
-        <v>2025</v>
-      </c>
-      <c r="D18" s="3">
-        <v>764</v>
-      </c>
-      <c r="E18" s="8">
-        <v>1090</v>
-      </c>
-      <c r="F18" s="3">
-        <v>73</v>
-      </c>
-      <c r="G18" s="3">
-        <v>36</v>
-      </c>
-      <c r="H18" s="8">
-        <v>4387</v>
-      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B2:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
